--- a/submissions/log.xlsx
+++ b/submissions/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaog\OneDrive\Desktop\Programming Sandbox\WindSpeeds_TropicalStorms_Prediction_with_NeuralNetworks\submissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113DC3FC-C42E-4CDE-8CEB-27D527B0FDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{113DC3FC-C42E-4CDE-8CEB-27D527B0FDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{990B3297-0716-43F5-BC0F-BB2ADB059C1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>dfsub_20201230_2156</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>dfsub_20201230_2318</t>
+  </si>
+  <si>
+    <t>dfsub_20210101_1219</t>
+  </si>
+  <si>
+    <t>dfsub_20210101_1307</t>
   </si>
 </sst>
 </file>
@@ -50,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -76,7 +82,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -111,11 +123,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D5"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,13 +457,13 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>19.672448320896699</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>17.964099999999998</v>
       </c>
     </row>
@@ -460,7 +478,30 @@
         <v>20.813600000000001</v>
       </c>
     </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>34.673957581492402</v>
+      </c>
+      <c r="D6" s="3">
+        <v>26.138100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>30.903819736927701</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25.220500000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>